--- a/Personal Finance Project.xlsx
+++ b/Personal Finance Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F101F1-A4F7-4A03-ADE6-81724467F248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BEF8C3-7B29-456A-BDAA-1A160E480898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9BDA3785-B2E1-471F-8EC4-1861B4B2DCF3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{9BDA3785-B2E1-471F-8EC4-1861B4B2DCF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal spending" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="37" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1113,7 +1113,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1124,28 +1124,20 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1154,6 +1146,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1173,12 +1174,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
@@ -1186,7 +1185,7 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="29">
     <dxf>
       <fill>
         <patternFill>
@@ -1205,7 +1204,8 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1224,13 +1224,18 @@
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1245,16 +1250,6 @@
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1263,12 +1258,7 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -1971,7 +1961,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Book1 projectexcel.xlsx]Pivot Tables!PivotTable1</c:name>
+    <c:name>[Personal Finance Project.xlsx]Pivot Tables!PivotTable1</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -2015,8 +2005,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.28870122484689414"/>
-          <c:y val="0.21092155147273259"/>
+          <c:x val="0.27242460409641062"/>
+          <c:y val="4.7866286652818533E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2452,6 +2442,7 @@
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
+          <a:sp3d/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -2508,6 +2499,7 @@
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
+          <a:sp3d/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -2564,6 +2556,7 @@
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
+          <a:sp3d/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -2611,6 +2604,44 @@
         </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2623,9 +2654,9 @@
           <c:h val="0.74844730772289825"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2649,6 +2680,7 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2792,6 +2824,7 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2935,6 +2968,7 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3065,10 +3099,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:shape val="box"/>
         <c:axId val="240141872"/>
         <c:axId val="240142832"/>
-      </c:barChart>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
         <c:axId val="240141872"/>
         <c:scaling>
@@ -3192,8 +3227,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.75764720034995625"/>
           <c:y val="9.6769830854476546E-2"/>
-          <c:w val="0.23124168853893262"/>
-          <c:h val="0.30627260134149897"/>
+          <c:w val="0.24235275270143622"/>
+          <c:h val="0.3197785614221535"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4468,8 +4503,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Filter by Category">
@@ -4492,7 +4527,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4546,8 +4581,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Date">
@@ -4565,12 +4600,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Date"/>
+              <tsle:timeslicer name="Date"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11029,7 +11064,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8905B436-5FE8-45D2-93A6-16839BBB13EA}" name="PivotTable25" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8905B436-5FE8-45D2-93A6-16839BBB13EA}" name="PivotTable25" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
@@ -11284,7 +11319,7 @@
     <dataField name="Sum of Amount" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="9">
+    <format dxfId="8">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="1" selected="0">
@@ -11293,7 +11328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -11310,299 +11345,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09665412-36BF-48C6-9D1E-70AE1A356382}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A3:D20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="128">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="9"/>
-        <item x="2"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="13"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="10" hier="-1"/>
-  </pageFields>
-  <dataFields count="3">
-    <dataField name="Total Spent" fld="9" baseField="7" baseItem="1" numFmtId="44"/>
-    <dataField name="Transaction Count" fld="9" subtotal="count" baseField="7" baseItem="1"/>
-    <dataField name="Spend %" fld="9" showDataAs="percentOfTotal" baseField="7" baseItem="7" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="3" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F0DAC7DD-4543-473A-BCBF-F2322196B6BA}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="F3:G78" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -12122,6 +11864,335 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09665412-36BF-48C6-9D1E-70AE1A356382}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A3:D20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="128">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="9"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="10" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="Total Spent" fld="9" baseField="7" baseItem="1" numFmtId="44"/>
+    <dataField name="Transaction Count" fld="9" subtotal="count" baseField="7" baseItem="1"/>
+    <dataField name="Spend %" fld="9" showDataAs="percentOfTotal" baseField="7" baseItem="7" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="3" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{72DF93D6-F2A6-4EDC-9DD3-DB1D32816197}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="13" unboundColumnsRight="1">
@@ -12153,22 +12224,22 @@
   <data>
     <tabular pivotCacheId="1346952420">
       <items count="16">
+        <i x="9" s="1"/>
         <i x="2" s="1"/>
         <i x="14" s="1"/>
+        <i x="15" s="1"/>
+        <i x="4" s="1"/>
+        <i x="12" s="1"/>
         <i x="10" s="1"/>
         <i x="6" s="1"/>
         <i x="11" s="1"/>
         <i x="3" s="1"/>
+        <i x="1" s="1"/>
         <i x="0" s="1"/>
+        <i x="8" s="1"/>
+        <i x="5" s="1"/>
         <i x="13" s="1"/>
         <i x="7" s="1"/>
-        <i x="9" s="1" nd="1"/>
-        <i x="15" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
-        <i x="12" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
-        <i x="8" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -12182,28 +12253,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22DD9F05-CBA2-40FC-82D9-F36AFD9443FE}" name="Export20251104132100" displayName="Export20251104132100" ref="A1:J221" tableType="queryTable" totalsRowCount="1" totalsRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22DD9F05-CBA2-40FC-82D9-F36AFD9443FE}" name="Export20251104132100" displayName="Export20251104132100" ref="A1:J221" tableType="queryTable" totalsRowCount="1" totalsRowDxfId="28">
   <autoFilter ref="A1:J220" xr:uid="{22DD9F05-CBA2-40FC-82D9-F36AFD9443FE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J220">
     <sortCondition ref="A1:A220"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{814B22D2-64E5-4C01-8C0C-4B881D03804E}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{5AE12168-5BA2-4A98-8B7F-5CE17219196C}" uniqueName="11" name="Month-year" queryTableFieldId="11" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="1" xr3:uid="{814B22D2-64E5-4C01-8C0C-4B881D03804E}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{5AE12168-5BA2-4A98-8B7F-5CE17219196C}" uniqueName="11" name="Month-year" queryTableFieldId="11" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>TEXT(A2,"yyyy-mm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4417EE72-2289-4E87-9B4B-4FB3CDEF96C7}" uniqueName="2" name="Unique Id" queryTableFieldId="2" totalsRowDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{9A528CDB-F94A-4BCA-9A04-0E498BDA7EBD}" uniqueName="3" name="Tran Type" queryTableFieldId="3" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{A5C79C76-45A4-4D18-9FF7-11CB8BCF4D30}" uniqueName="5" name="Payee" queryTableFieldId="5" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{D7E66312-8209-494A-8DCC-774506565A98}" uniqueName="9" name="Merchant" queryTableFieldId="8" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{6677AFEB-90E4-4F5B-93ED-B6EA6AFCBD76}" uniqueName="12" name="Category" queryTableFieldId="12" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="2" xr3:uid="{4417EE72-2289-4E87-9B4B-4FB3CDEF96C7}" uniqueName="2" name="Unique Id" queryTableFieldId="2" totalsRowDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{9A528CDB-F94A-4BCA-9A04-0E498BDA7EBD}" uniqueName="3" name="Tran Type" queryTableFieldId="3" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{A5C79C76-45A4-4D18-9FF7-11CB8BCF4D30}" uniqueName="5" name="Payee" queryTableFieldId="5" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{D7E66312-8209-494A-8DCC-774506565A98}" uniqueName="9" name="Merchant" queryTableFieldId="8" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{6677AFEB-90E4-4F5B-93ED-B6EA6AFCBD76}" uniqueName="12" name="Category" queryTableFieldId="12" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Export20251104132100[[#This Row],[Merchant]],Table3[Merchant],Table3[Category],"Unknown")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BCE6B9CB-84F4-46D3-B2A9-89A2EA2E2AFE}" uniqueName="6" name="Memo" queryTableFieldId="6" dataDxfId="14" totalsRowDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{BCE6B9CB-84F4-46D3-B2A9-89A2EA2E2AFE}" uniqueName="6" name="Memo" queryTableFieldId="6" dataDxfId="14" totalsRowDxfId="13"/>
     <tableColumn id="7" xr3:uid="{4A459C4A-975D-4223-A05E-9E8B8BE56A34}" uniqueName="7" name="Amount" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="12" totalsRowDxfId="11">
       <totalsRowFormula>SUBTOTAL(109, Export20251104132100[Amount])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E02AC9DF-08FE-451A-B107-8B9498FDE169}" uniqueName="10" name="Type" queryTableFieldId="9" dataDxfId="13" totalsRowDxfId="16">
+    <tableColumn id="10" xr3:uid="{E02AC9DF-08FE-451A-B107-8B9498FDE169}" uniqueName="10" name="Type" queryTableFieldId="9" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(Export20251104132100[[#This Row],[Amount]]&gt;=0,"In","out")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12227,17 +12298,17 @@
   <autoFilter ref="A1:F12" xr:uid="{97EFDA4F-88E2-4830-B981-9819C0AEF958}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FD2A8B45-955C-432D-ACFC-FF73DF0ABA67}" name="Month-year"/>
-    <tableColumn id="2" xr3:uid="{1D5B199C-1103-48F3-A184-43A335577987}" name="income" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{1D5B199C-1103-48F3-A184-43A335577987}" name="income" dataDxfId="6">
       <calculatedColumnFormula>SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"In",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F2318FD2-D9CE-4722-8380-24954C664085}" name="spending" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{F2318FD2-D9CE-4722-8380-24954C664085}" name="spending" dataDxfId="5">
       <calculatedColumnFormula>-SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"out",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3341ED2D-1502-4F02-8A5B-9CE2A02E8F68}" name="balance" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{3341ED2D-1502-4F02-8A5B-9CE2A02E8F68}" name="balance" dataDxfId="4">
       <calculatedColumnFormula>Table2[[#This Row],[income]]+Table2[[#This Row],[spending]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{73E37692-5A57-45CD-A544-EC1BFBF55E5A}" name="Income Sparkilne" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{CDA3187A-03ED-455C-9281-4AB3868E9624}" name="Spending Sparkline" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{CDA3187A-03ED-455C-9281-4AB3868E9624}" name="Spending Sparkline" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12580,7 +12651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4A3C53-44CC-4A66-B7A0-3A865C7844D4}">
   <dimension ref="A1:R221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E190" workbookViewId="0">
+    <sheetView topLeftCell="E181" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -12594,7 +12665,7 @@
     <col min="6" max="6" width="39.6328125" customWidth="1"/>
     <col min="7" max="7" width="41.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" style="15" customWidth="1"/>
     <col min="11" max="14" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12623,7 +12694,7 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -12657,7 +12728,7 @@
       <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="15">
         <v>-27.99</v>
       </c>
       <c r="J2" t="str">
@@ -12692,7 +12763,7 @@
       <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="15">
         <v>-8.99</v>
       </c>
       <c r="J3" t="str">
@@ -12731,7 +12802,7 @@
       <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="15">
         <v>-35.520000000000003</v>
       </c>
       <c r="J4" t="str">
@@ -12766,7 +12837,7 @@
       <c r="H5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="15">
         <v>-39.99</v>
       </c>
       <c r="J5" t="str">
@@ -12805,7 +12876,7 @@
       <c r="H6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="15">
         <v>-22.99</v>
       </c>
       <c r="J6" t="str">
@@ -12844,7 +12915,7 @@
       <c r="H7" t="s">
         <v>216</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="15">
         <v>238.67</v>
       </c>
       <c r="J7" t="str">
@@ -12879,7 +12950,7 @@
       <c r="H8" t="s">
         <v>215</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="15">
         <v>77.72</v>
       </c>
       <c r="J8" t="str">
@@ -12914,7 +12985,7 @@
       <c r="H9" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="15">
         <v>-18.989999999999998</v>
       </c>
       <c r="J9" t="str">
@@ -12949,7 +13020,7 @@
       <c r="H10" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="15">
         <v>-16</v>
       </c>
       <c r="J10" t="str">
@@ -12984,7 +13055,7 @@
       <c r="H11" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="15">
         <v>-20</v>
       </c>
       <c r="J11" t="str">
@@ -13019,7 +13090,7 @@
       <c r="H12" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="15">
         <v>-35.880000000000003</v>
       </c>
       <c r="J12" t="str">
@@ -13054,7 +13125,7 @@
       <c r="H13" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="15">
         <v>-0.38</v>
       </c>
       <c r="J13" t="str">
@@ -13089,7 +13160,7 @@
       <c r="H14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="15">
         <v>-15</v>
       </c>
       <c r="J14" t="str">
@@ -13124,7 +13195,7 @@
       <c r="H15" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="15">
         <v>-17.89</v>
       </c>
       <c r="J15" t="str">
@@ -13159,7 +13230,7 @@
       <c r="H16" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="15">
         <v>-20.399999999999999</v>
       </c>
       <c r="J16" t="str">
@@ -13194,7 +13265,7 @@
       <c r="H17" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="15">
         <v>-14</v>
       </c>
       <c r="J17" t="str">
@@ -13229,7 +13300,7 @@
       <c r="H18" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="15">
         <v>-5</v>
       </c>
       <c r="J18" t="str">
@@ -13264,7 +13335,7 @@
       <c r="H19" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="15">
         <v>-50</v>
       </c>
       <c r="J19" t="str">
@@ -13299,7 +13370,7 @@
       <c r="H20" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="15">
         <v>-3.8</v>
       </c>
       <c r="J20" t="str">
@@ -13334,7 +13405,7 @@
       <c r="H21" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="15">
         <v>-5.5</v>
       </c>
       <c r="J21" t="str">
@@ -13369,7 +13440,7 @@
       <c r="H22" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="15">
         <v>-10.8</v>
       </c>
       <c r="J22" t="str">
@@ -13404,7 +13475,7 @@
       <c r="H23" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="15">
         <v>-11.3</v>
       </c>
       <c r="J23" t="str">
@@ -13439,7 +13510,7 @@
       <c r="H24" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="15">
         <v>-3.8</v>
       </c>
       <c r="J24" t="str">
@@ -13474,7 +13545,7 @@
       <c r="H25" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="15">
         <v>-11.3</v>
       </c>
       <c r="J25" t="str">
@@ -13509,7 +13580,7 @@
       <c r="H26" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="15">
         <v>-3.8</v>
       </c>
       <c r="J26" t="str">
@@ -13544,7 +13615,7 @@
       <c r="H27" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="15">
         <v>-5.5</v>
       </c>
       <c r="J27" t="str">
@@ -13579,7 +13650,7 @@
       <c r="H28" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="15">
         <v>-54.14</v>
       </c>
       <c r="J28" t="str">
@@ -13614,7 +13685,7 @@
       <c r="H29" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="15">
         <v>-1.1399999999999999</v>
       </c>
       <c r="J29" t="str">
@@ -13649,7 +13720,7 @@
       <c r="H30" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="15">
         <v>238.67</v>
       </c>
       <c r="J30" t="str">
@@ -13684,7 +13755,7 @@
       <c r="H31" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="15">
         <v>77.72</v>
       </c>
       <c r="J31" t="str">
@@ -13719,7 +13790,7 @@
       <c r="H32" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="15">
         <v>-49.99</v>
       </c>
       <c r="J32" t="str">
@@ -13754,7 +13825,7 @@
       <c r="H33" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="15">
         <v>-12.85</v>
       </c>
       <c r="J33" t="str">
@@ -13789,7 +13860,7 @@
       <c r="H34" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="15">
         <v>-5.5</v>
       </c>
       <c r="J34" t="str">
@@ -13824,7 +13895,7 @@
       <c r="H35" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="15">
         <v>-3</v>
       </c>
       <c r="J35" t="str">
@@ -13859,7 +13930,7 @@
       <c r="H36" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="15">
         <v>-5.5</v>
       </c>
       <c r="J36" t="str">
@@ -13894,7 +13965,7 @@
       <c r="H37" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="15">
         <v>-11.3</v>
       </c>
       <c r="J37" t="str">
@@ -13929,7 +14000,7 @@
       <c r="H38" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="15">
         <v>-5</v>
       </c>
       <c r="J38" t="str">
@@ -13964,7 +14035,7 @@
       <c r="H39" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="15">
         <v>-5</v>
       </c>
       <c r="J39" t="str">
@@ -13999,7 +14070,7 @@
       <c r="H40" t="s">
         <v>6</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="15">
         <v>-13</v>
       </c>
       <c r="J40" t="str">
@@ -14034,7 +14105,7 @@
       <c r="H41" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="31">
+      <c r="I41" s="16">
         <v>30</v>
       </c>
       <c r="J41" t="str">
@@ -14069,7 +14140,7 @@
       <c r="H42" t="s">
         <v>6</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="15">
         <v>-35.549999999999997</v>
       </c>
       <c r="J42" t="str">
@@ -14104,7 +14175,7 @@
       <c r="H43" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="30">
+      <c r="I43" s="15">
         <v>-3</v>
       </c>
       <c r="J43" t="str">
@@ -14139,7 +14210,7 @@
       <c r="H44" t="s">
         <v>6</v>
       </c>
-      <c r="I44" s="30">
+      <c r="I44" s="15">
         <v>-5.5</v>
       </c>
       <c r="J44" t="str">
@@ -14174,7 +14245,7 @@
       <c r="H45" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="30">
+      <c r="I45" s="15">
         <v>-3</v>
       </c>
       <c r="J45" t="str">
@@ -14209,7 +14280,7 @@
       <c r="H46" t="s">
         <v>6</v>
       </c>
-      <c r="I46" s="30">
+      <c r="I46" s="15">
         <v>-18.899999999999999</v>
       </c>
       <c r="J46" t="str">
@@ -14244,7 +14315,7 @@
       <c r="H47" t="s">
         <v>6</v>
       </c>
-      <c r="I47" s="30">
+      <c r="I47" s="15">
         <v>-10.99</v>
       </c>
       <c r="J47" t="str">
@@ -14279,7 +14350,7 @@
       <c r="H48" t="s">
         <v>6</v>
       </c>
-      <c r="I48" s="30">
+      <c r="I48" s="15">
         <v>-17.34</v>
       </c>
       <c r="J48" t="str">
@@ -14314,7 +14385,7 @@
       <c r="H49" t="s">
         <v>6</v>
       </c>
-      <c r="I49" s="30">
+      <c r="I49" s="15">
         <v>-37.74</v>
       </c>
       <c r="J49" t="str">
@@ -14349,7 +14420,7 @@
       <c r="H50" t="s">
         <v>41</v>
       </c>
-      <c r="I50" s="30">
+      <c r="I50" s="15">
         <v>-6</v>
       </c>
       <c r="J50" t="str">
@@ -14384,7 +14455,7 @@
       <c r="H51" t="s">
         <v>6</v>
       </c>
-      <c r="I51" s="30">
+      <c r="I51" s="15">
         <v>-149.99</v>
       </c>
       <c r="J51" t="str">
@@ -14419,7 +14490,7 @@
       <c r="H52" t="s">
         <v>45</v>
       </c>
-      <c r="I52" s="30">
+      <c r="I52" s="15">
         <v>-130.72</v>
       </c>
       <c r="J52" t="str">
@@ -14454,7 +14525,7 @@
       <c r="H53" t="s">
         <v>47</v>
       </c>
-      <c r="I53" s="30">
+      <c r="I53" s="15">
         <v>238.67</v>
       </c>
       <c r="J53" t="str">
@@ -14489,7 +14560,7 @@
       <c r="H54" t="s">
         <v>46</v>
       </c>
-      <c r="I54" s="30">
+      <c r="I54" s="15">
         <v>77.72</v>
       </c>
       <c r="J54" t="str">
@@ -14524,7 +14595,7 @@
       <c r="H55" t="s">
         <v>6</v>
       </c>
-      <c r="I55" s="30">
+      <c r="I55" s="15">
         <v>-86.98</v>
       </c>
       <c r="J55" t="str">
@@ -14559,7 +14630,7 @@
       <c r="H56" t="s">
         <v>6</v>
       </c>
-      <c r="I56" s="30">
+      <c r="I56" s="15">
         <v>-17.93</v>
       </c>
       <c r="J56" t="str">
@@ -14594,7 +14665,7 @@
       <c r="H57" t="s">
         <v>6</v>
       </c>
-      <c r="I57" s="30">
+      <c r="I57" s="15">
         <v>-0.38</v>
       </c>
       <c r="J57" t="str">
@@ -14629,7 +14700,7 @@
       <c r="H58" t="s">
         <v>6</v>
       </c>
-      <c r="I58" s="30">
+      <c r="I58" s="15">
         <v>-19.89</v>
       </c>
       <c r="J58" t="str">
@@ -14664,7 +14735,7 @@
       <c r="H59" t="s">
         <v>52</v>
       </c>
-      <c r="I59" s="30">
+      <c r="I59" s="15">
         <v>-5</v>
       </c>
       <c r="J59" t="str">
@@ -14699,7 +14770,7 @@
       <c r="H60" t="s">
         <v>6</v>
       </c>
-      <c r="I60" s="30">
+      <c r="I60" s="15">
         <v>-11.4</v>
       </c>
       <c r="J60" t="str">
@@ -14734,7 +14805,7 @@
       <c r="H61" t="s">
         <v>55</v>
       </c>
-      <c r="I61" s="30">
+      <c r="I61" s="15">
         <v>238.67</v>
       </c>
       <c r="J61" t="str">
@@ -14769,7 +14840,7 @@
       <c r="H62" t="s">
         <v>56</v>
       </c>
-      <c r="I62" s="30">
+      <c r="I62" s="15">
         <v>77.72</v>
       </c>
       <c r="J62" t="str">
@@ -14804,7 +14875,7 @@
       <c r="H63" t="s">
         <v>6</v>
       </c>
-      <c r="I63" s="30">
+      <c r="I63" s="15">
         <v>-12</v>
       </c>
       <c r="J63" t="str">
@@ -14839,7 +14910,7 @@
       <c r="H64" t="s">
         <v>6</v>
       </c>
-      <c r="I64" s="30">
+      <c r="I64" s="15">
         <v>-36</v>
       </c>
       <c r="J64" t="str">
@@ -14874,7 +14945,7 @@
       <c r="H65" t="s">
         <v>6</v>
       </c>
-      <c r="I65" s="30">
+      <c r="I65" s="15">
         <v>-57.38</v>
       </c>
       <c r="J65" t="str">
@@ -14909,7 +14980,7 @@
       <c r="H66" t="s">
         <v>6</v>
       </c>
-      <c r="I66" s="30">
+      <c r="I66" s="15">
         <v>-20.49</v>
       </c>
       <c r="J66" t="str">
@@ -14944,7 +15015,7 @@
       <c r="H67" t="s">
         <v>61</v>
       </c>
-      <c r="I67" s="30">
+      <c r="I67" s="15">
         <v>-31</v>
       </c>
       <c r="J67" t="str">
@@ -14979,7 +15050,7 @@
       <c r="H68" t="s">
         <v>6</v>
       </c>
-      <c r="I68" s="30">
+      <c r="I68" s="15">
         <v>-66.63</v>
       </c>
       <c r="J68" t="str">
@@ -15014,7 +15085,7 @@
       <c r="H69" t="s">
         <v>6</v>
       </c>
-      <c r="I69" s="30">
+      <c r="I69" s="15">
         <v>-66</v>
       </c>
       <c r="J69" t="str">
@@ -15049,7 +15120,7 @@
       <c r="H70" t="s">
         <v>6</v>
       </c>
-      <c r="I70" s="30">
+      <c r="I70" s="15">
         <v>-4</v>
       </c>
       <c r="J70" t="str">
@@ -15084,7 +15155,7 @@
       <c r="H71" t="s">
         <v>6</v>
       </c>
-      <c r="I71" s="30">
+      <c r="I71" s="15">
         <v>-17.25</v>
       </c>
       <c r="J71" t="str">
@@ -15119,7 +15190,7 @@
       <c r="H72" t="s">
         <v>6</v>
       </c>
-      <c r="I72" s="30">
+      <c r="I72" s="15">
         <v>-4.6100000000000003</v>
       </c>
       <c r="J72" t="str">
@@ -15154,7 +15225,7 @@
       <c r="H73" t="s">
         <v>6</v>
       </c>
-      <c r="I73" s="30">
+      <c r="I73" s="15">
         <v>-22.99</v>
       </c>
       <c r="J73" t="str">
@@ -15189,7 +15260,7 @@
       <c r="H74" t="s">
         <v>6</v>
       </c>
-      <c r="I74" s="30">
+      <c r="I74" s="15">
         <v>-11.4</v>
       </c>
       <c r="J74" t="str">
@@ -15224,7 +15295,7 @@
       <c r="H75" t="s">
         <v>67</v>
       </c>
-      <c r="I75" s="30">
+      <c r="I75" s="15">
         <v>238.67</v>
       </c>
       <c r="J75" t="str">
@@ -15259,7 +15330,7 @@
       <c r="H76" t="s">
         <v>66</v>
       </c>
-      <c r="I76" s="30">
+      <c r="I76" s="15">
         <v>77.72</v>
       </c>
       <c r="J76" t="str">
@@ -15294,7 +15365,7 @@
       <c r="H77" t="s">
         <v>6</v>
       </c>
-      <c r="I77" s="30">
+      <c r="I77" s="15">
         <v>-27.99</v>
       </c>
       <c r="J77" t="str">
@@ -15329,7 +15400,7 @@
       <c r="H78" t="s">
         <v>6</v>
       </c>
-      <c r="I78" s="30">
+      <c r="I78" s="15">
         <v>-18.989999999999998</v>
       </c>
       <c r="J78" t="str">
@@ -15364,7 +15435,7 @@
       <c r="H79" t="s">
         <v>6</v>
       </c>
-      <c r="I79" s="30">
+      <c r="I79" s="15">
         <v>-101.98</v>
       </c>
       <c r="J79" t="str">
@@ -15399,7 +15470,7 @@
       <c r="H80" t="s">
         <v>6</v>
       </c>
-      <c r="I80" s="30">
+      <c r="I80" s="15">
         <v>-15.56</v>
       </c>
       <c r="J80" t="str">
@@ -15434,7 +15505,7 @@
       <c r="H81" t="s">
         <v>6</v>
       </c>
-      <c r="I81" s="30">
+      <c r="I81" s="15">
         <v>-0.37</v>
       </c>
       <c r="J81" t="str">
@@ -15469,7 +15540,7 @@
       <c r="H82" t="s">
         <v>6</v>
       </c>
-      <c r="I82" s="30">
+      <c r="I82" s="15">
         <v>-17.7</v>
       </c>
       <c r="J82" t="str">
@@ -15504,7 +15575,7 @@
       <c r="H83" t="s">
         <v>6</v>
       </c>
-      <c r="I83" s="30">
+      <c r="I83" s="15">
         <v>-22.99</v>
       </c>
       <c r="J83" t="str">
@@ -15539,7 +15610,7 @@
       <c r="H84" t="s">
         <v>6</v>
       </c>
-      <c r="I84" s="30">
+      <c r="I84" s="15">
         <v>-10.28</v>
       </c>
       <c r="J84" t="str">
@@ -15574,7 +15645,7 @@
       <c r="H85" t="s">
         <v>6</v>
       </c>
-      <c r="I85" s="30">
+      <c r="I85" s="15">
         <v>-11</v>
       </c>
       <c r="J85" t="str">
@@ -15609,7 +15680,7 @@
       <c r="H86" t="s">
         <v>72</v>
       </c>
-      <c r="I86" s="30">
+      <c r="I86" s="15">
         <v>238.67</v>
       </c>
       <c r="J86" t="str">
@@ -15644,7 +15715,7 @@
       <c r="H87" t="s">
         <v>73</v>
       </c>
-      <c r="I87" s="30">
+      <c r="I87" s="15">
         <v>77.72</v>
       </c>
       <c r="J87" t="str">
@@ -15679,7 +15750,7 @@
       <c r="H88" t="s">
         <v>6</v>
       </c>
-      <c r="I88" s="30">
+      <c r="I88" s="15">
         <v>-42.4</v>
       </c>
       <c r="J88" t="str">
@@ -15714,7 +15785,7 @@
       <c r="H89" t="s">
         <v>6</v>
       </c>
-      <c r="I89" s="30">
+      <c r="I89" s="15">
         <v>-18.989999999999998</v>
       </c>
       <c r="J89" t="str">
@@ -15749,7 +15820,7 @@
       <c r="H90" t="s">
         <v>6</v>
       </c>
-      <c r="I90" s="30">
+      <c r="I90" s="15">
         <v>-35.630000000000003</v>
       </c>
       <c r="J90" t="str">
@@ -15784,7 +15855,7 @@
       <c r="H91" t="s">
         <v>6</v>
       </c>
-      <c r="I91" s="30">
+      <c r="I91" s="15">
         <v>-6.9</v>
       </c>
       <c r="J91" t="str">
@@ -15819,7 +15890,7 @@
       <c r="H92" t="s">
         <v>76</v>
       </c>
-      <c r="I92" s="30">
+      <c r="I92" s="15">
         <v>238.67</v>
       </c>
       <c r="J92" t="str">
@@ -15854,7 +15925,7 @@
       <c r="H93" t="s">
         <v>77</v>
       </c>
-      <c r="I93" s="30">
+      <c r="I93" s="15">
         <v>77.72</v>
       </c>
       <c r="J93" t="str">
@@ -15889,7 +15960,7 @@
       <c r="H94" t="s">
         <v>6</v>
       </c>
-      <c r="I94" s="30">
+      <c r="I94" s="15">
         <v>-260</v>
       </c>
       <c r="J94" t="str">
@@ -15924,7 +15995,7 @@
       <c r="H95" t="s">
         <v>6</v>
       </c>
-      <c r="I95" s="30">
+      <c r="I95" s="15">
         <v>-10.99</v>
       </c>
       <c r="J95" t="str">
@@ -15959,7 +16030,7 @@
       <c r="H96" t="s">
         <v>79</v>
       </c>
-      <c r="I96" s="30">
+      <c r="I96" s="15">
         <v>-130.72</v>
       </c>
       <c r="J96" t="str">
@@ -15994,7 +16065,7 @@
       <c r="H97" t="s">
         <v>6</v>
       </c>
-      <c r="I97" s="30">
+      <c r="I97" s="15">
         <v>-4.6100000000000003</v>
       </c>
       <c r="J97" t="str">
@@ -16029,7 +16100,7 @@
       <c r="H98" t="s">
         <v>6</v>
       </c>
-      <c r="I98" s="30">
+      <c r="I98" s="15">
         <v>-11.89</v>
       </c>
       <c r="J98" t="str">
@@ -16064,7 +16135,7 @@
       <c r="H99" t="s">
         <v>6</v>
       </c>
-      <c r="I99" s="30">
+      <c r="I99" s="15">
         <v>-31.48</v>
       </c>
       <c r="J99" t="str">
@@ -16099,7 +16170,7 @@
       <c r="H100" t="s">
         <v>6</v>
       </c>
-      <c r="I100" s="30">
+      <c r="I100" s="15">
         <v>-0.22</v>
       </c>
       <c r="J100" t="str">
@@ -16134,7 +16205,7 @@
       <c r="H101" t="s">
         <v>6</v>
       </c>
-      <c r="I101" s="30">
+      <c r="I101" s="15">
         <v>-10.3</v>
       </c>
       <c r="J101" t="str">
@@ -16169,7 +16240,7 @@
       <c r="H102" t="s">
         <v>6</v>
       </c>
-      <c r="I102" s="30">
+      <c r="I102" s="15">
         <v>-4.6100000000000003</v>
       </c>
       <c r="J102" t="str">
@@ -16204,7 +16275,7 @@
       <c r="H103" t="s">
         <v>6</v>
       </c>
-      <c r="I103" s="30">
+      <c r="I103" s="15">
         <v>-0.56999999999999995</v>
       </c>
       <c r="J103" t="str">
@@ -16239,7 +16310,7 @@
       <c r="H104" t="s">
         <v>6</v>
       </c>
-      <c r="I104" s="30">
+      <c r="I104" s="15">
         <v>-27.24</v>
       </c>
       <c r="J104" t="str">
@@ -16274,7 +16345,7 @@
       <c r="H105" t="s">
         <v>6</v>
       </c>
-      <c r="I105" s="30">
+      <c r="I105" s="15">
         <v>-10.7</v>
       </c>
       <c r="J105" t="str">
@@ -16309,7 +16380,7 @@
       <c r="H106" t="s">
         <v>6</v>
       </c>
-      <c r="I106" s="30">
+      <c r="I106" s="15">
         <v>-27.99</v>
       </c>
       <c r="J106" t="str">
@@ -16344,7 +16415,7 @@
       <c r="H107" t="s">
         <v>6</v>
       </c>
-      <c r="I107" s="30">
+      <c r="I107" s="15">
         <v>-18.989999999999998</v>
       </c>
       <c r="J107" t="str">
@@ -16379,7 +16450,7 @@
       <c r="H108" t="s">
         <v>6</v>
       </c>
-      <c r="I108" s="30">
+      <c r="I108" s="15">
         <v>-10.58</v>
       </c>
       <c r="J108" t="str">
@@ -16414,7 +16485,7 @@
       <c r="H109" t="s">
         <v>6</v>
       </c>
-      <c r="I109" s="30">
+      <c r="I109" s="15">
         <v>-0.37</v>
       </c>
       <c r="J109" t="str">
@@ -16449,7 +16520,7 @@
       <c r="H110" t="s">
         <v>6</v>
       </c>
-      <c r="I110" s="30">
+      <c r="I110" s="15">
         <v>-17.73</v>
       </c>
       <c r="J110" t="str">
@@ -16484,7 +16555,7 @@
       <c r="H111" t="s">
         <v>35</v>
       </c>
-      <c r="I111" s="30">
+      <c r="I111" s="15">
         <v>130</v>
       </c>
       <c r="J111" t="str">
@@ -16519,7 +16590,7 @@
       <c r="H112" t="s">
         <v>6</v>
       </c>
-      <c r="I112" s="30">
+      <c r="I112" s="15">
         <v>-55</v>
       </c>
       <c r="J112" t="str">
@@ -16554,7 +16625,7 @@
       <c r="H113" t="s">
         <v>6</v>
       </c>
-      <c r="I113" s="30">
+      <c r="I113" s="15">
         <v>-11.89</v>
       </c>
       <c r="J113" t="str">
@@ -16589,7 +16660,7 @@
       <c r="H114" t="s">
         <v>6</v>
       </c>
-      <c r="I114" s="30">
+      <c r="I114" s="15">
         <v>-10.99</v>
       </c>
       <c r="J114" t="str">
@@ -16624,7 +16695,7 @@
       <c r="H115" t="s">
         <v>83</v>
       </c>
-      <c r="I115" s="30">
+      <c r="I115" s="15">
         <v>-130.72</v>
       </c>
       <c r="J115" t="str">
@@ -16659,7 +16730,7 @@
       <c r="H116" t="s">
         <v>6</v>
       </c>
-      <c r="I116" s="30">
+      <c r="I116" s="15">
         <v>-31.98</v>
       </c>
       <c r="J116" t="str">
@@ -16694,7 +16765,7 @@
       <c r="H117" t="s">
         <v>6</v>
       </c>
-      <c r="I117" s="30">
+      <c r="I117" s="15">
         <v>-1.99</v>
       </c>
       <c r="J117" t="str">
@@ -16729,7 +16800,7 @@
       <c r="H118" t="s">
         <v>85</v>
       </c>
-      <c r="I118" s="30">
+      <c r="I118" s="15">
         <v>130</v>
       </c>
       <c r="J118" t="str">
@@ -16764,7 +16835,7 @@
       <c r="H119" t="s">
         <v>6</v>
       </c>
-      <c r="I119" s="30">
+      <c r="I119" s="15">
         <v>-27.99</v>
       </c>
       <c r="J119" t="str">
@@ -16799,7 +16870,7 @@
       <c r="H120" t="s">
         <v>6</v>
       </c>
-      <c r="I120" s="30">
+      <c r="I120" s="15">
         <v>-18.989999999999998</v>
       </c>
       <c r="J120" t="str">
@@ -16834,7 +16905,7 @@
       <c r="H121" t="s">
         <v>89</v>
       </c>
-      <c r="I121" s="30">
+      <c r="I121" s="15">
         <v>150</v>
       </c>
       <c r="J121" t="str">
@@ -16869,7 +16940,7 @@
       <c r="H122" t="s">
         <v>91</v>
       </c>
-      <c r="I122" s="30">
+      <c r="I122" s="15">
         <v>150</v>
       </c>
       <c r="J122" t="str">
@@ -16904,7 +16975,7 @@
       <c r="H123" t="s">
         <v>6</v>
       </c>
-      <c r="I123" s="30">
+      <c r="I123" s="15">
         <v>-25.6</v>
       </c>
       <c r="J123" t="str">
@@ -16939,7 +17010,7 @@
       <c r="H124" t="s">
         <v>6</v>
       </c>
-      <c r="I124" s="30">
+      <c r="I124" s="15">
         <v>-135.84</v>
       </c>
       <c r="J124" t="str">
@@ -16974,7 +17045,7 @@
       <c r="H125" t="s">
         <v>6</v>
       </c>
-      <c r="I125" s="30">
+      <c r="I125" s="15">
         <v>-10.99</v>
       </c>
       <c r="J125" t="str">
@@ -17009,7 +17080,7 @@
       <c r="H126" t="s">
         <v>6</v>
       </c>
-      <c r="I126" s="30">
+      <c r="I126" s="15">
         <v>-0.36</v>
       </c>
       <c r="J126" t="str">
@@ -17044,7 +17115,7 @@
       <c r="H127" t="s">
         <v>6</v>
       </c>
-      <c r="I127" s="30">
+      <c r="I127" s="15">
         <v>-16.98</v>
       </c>
       <c r="J127" t="str">
@@ -17079,7 +17150,7 @@
       <c r="H128" t="s">
         <v>93</v>
       </c>
-      <c r="I128" s="30">
+      <c r="I128" s="15">
         <v>-130.72</v>
       </c>
       <c r="J128" t="str">
@@ -17114,7 +17185,7 @@
       <c r="H129" t="s">
         <v>6</v>
       </c>
-      <c r="I129" s="30">
+      <c r="I129" s="15">
         <v>-15.98</v>
       </c>
       <c r="J129" t="str">
@@ -17149,7 +17220,7 @@
       <c r="H130" t="s">
         <v>95</v>
       </c>
-      <c r="I130" s="30">
+      <c r="I130" s="15">
         <v>-15</v>
       </c>
       <c r="J130" t="str">
@@ -17184,7 +17255,7 @@
       <c r="H131" t="s">
         <v>6</v>
       </c>
-      <c r="I131" s="30">
+      <c r="I131" s="15">
         <v>-16.989999999999998</v>
       </c>
       <c r="J131" t="str">
@@ -17219,7 +17290,7 @@
       <c r="H132" t="s">
         <v>6</v>
       </c>
-      <c r="I132" s="30">
+      <c r="I132" s="15">
         <v>-27.99</v>
       </c>
       <c r="J132" t="str">
@@ -17254,7 +17325,7 @@
       <c r="H133" t="s">
         <v>6</v>
       </c>
-      <c r="I133" s="30">
+      <c r="I133" s="15">
         <v>-18.989999999999998</v>
       </c>
       <c r="J133" t="str">
@@ -17289,7 +17360,7 @@
       <c r="H134" t="s">
         <v>6</v>
       </c>
-      <c r="I134" s="30">
+      <c r="I134" s="15">
         <v>-10.99</v>
       </c>
       <c r="J134" t="str">
@@ -17324,7 +17395,7 @@
       <c r="H135" t="s">
         <v>6</v>
       </c>
-      <c r="I135" s="30">
+      <c r="I135" s="15">
         <v>-0.36</v>
       </c>
       <c r="J135" t="str">
@@ -17359,7 +17430,7 @@
       <c r="H136" t="s">
         <v>6</v>
       </c>
-      <c r="I136" s="30">
+      <c r="I136" s="15">
         <v>-17.05</v>
       </c>
       <c r="J136" t="str">
@@ -17394,7 +17465,7 @@
       <c r="H137" t="s">
         <v>97</v>
       </c>
-      <c r="I137" s="30">
+      <c r="I137" s="15">
         <v>-130.72</v>
       </c>
       <c r="J137" t="str">
@@ -17429,7 +17500,7 @@
       <c r="H138" t="s">
         <v>6</v>
       </c>
-      <c r="I138" s="30">
+      <c r="I138" s="15">
         <v>-18.989999999999998</v>
       </c>
       <c r="J138" t="str">
@@ -17464,7 +17535,7 @@
       <c r="H139" t="s">
         <v>98</v>
       </c>
-      <c r="I139" s="30">
+      <c r="I139" s="15">
         <v>150</v>
       </c>
       <c r="J139" t="str">
@@ -17499,7 +17570,7 @@
       <c r="H140" t="s">
         <v>6</v>
       </c>
-      <c r="I140" s="30">
+      <c r="I140" s="15">
         <v>-5</v>
       </c>
       <c r="J140" t="str">
@@ -17534,7 +17605,7 @@
       <c r="H141" t="s">
         <v>6</v>
       </c>
-      <c r="I141" s="30">
+      <c r="I141" s="15">
         <v>-13.28</v>
       </c>
       <c r="J141" t="str">
@@ -17569,7 +17640,7 @@
       <c r="H142" t="s">
         <v>6</v>
       </c>
-      <c r="I142" s="30">
+      <c r="I142" s="15">
         <v>-33.99</v>
       </c>
       <c r="J142" t="str">
@@ -17604,7 +17675,7 @@
       <c r="H143" t="s">
         <v>6</v>
       </c>
-      <c r="I143" s="30">
+      <c r="I143" s="15">
         <v>-23.76</v>
       </c>
       <c r="J143" t="str">
@@ -17639,7 +17710,7 @@
       <c r="H144" t="s">
         <v>6</v>
       </c>
-      <c r="I144" s="30">
+      <c r="I144" s="15">
         <v>-10</v>
       </c>
       <c r="J144" t="str">
@@ -17674,7 +17745,7 @@
       <c r="H145" t="s">
         <v>103</v>
       </c>
-      <c r="I145" s="30">
+      <c r="I145" s="15">
         <v>555.70000000000005</v>
       </c>
       <c r="J145" t="str">
@@ -17709,7 +17780,7 @@
       <c r="H146" t="s">
         <v>6</v>
       </c>
-      <c r="I146" s="30">
+      <c r="I146" s="15">
         <v>-170.57</v>
       </c>
       <c r="J146" t="str">
@@ -17744,7 +17815,7 @@
       <c r="H147" t="s">
         <v>6</v>
       </c>
-      <c r="I147" s="30">
+      <c r="I147" s="15">
         <v>-27.15</v>
       </c>
       <c r="J147" t="str">
@@ -17779,7 +17850,7 @@
       <c r="H148" t="s">
         <v>6</v>
       </c>
-      <c r="I148" s="30">
+      <c r="I148" s="15">
         <v>-10.99</v>
       </c>
       <c r="J148" t="str">
@@ -17814,7 +17885,7 @@
       <c r="H149" t="s">
         <v>6</v>
       </c>
-      <c r="I149" s="30">
+      <c r="I149" s="15">
         <v>-31.45</v>
       </c>
       <c r="J149" t="str">
@@ -17849,7 +17920,7 @@
       <c r="H150" t="s">
         <v>6</v>
       </c>
-      <c r="I150" s="30">
+      <c r="I150" s="15">
         <v>-35.880000000000003</v>
       </c>
       <c r="J150" t="str">
@@ -17884,7 +17955,7 @@
       <c r="H151" t="s">
         <v>6</v>
       </c>
-      <c r="I151" s="30">
+      <c r="I151" s="15">
         <v>-10.83</v>
       </c>
       <c r="J151" t="str">
@@ -17919,7 +17990,7 @@
       <c r="H152" t="s">
         <v>106</v>
       </c>
-      <c r="I152" s="30">
+      <c r="I152" s="15">
         <v>-130.72</v>
       </c>
       <c r="J152" t="str">
@@ -17954,7 +18025,7 @@
       <c r="H153" t="s">
         <v>107</v>
       </c>
-      <c r="I153" s="30">
+      <c r="I153" s="15">
         <v>130</v>
       </c>
       <c r="J153" t="str">
@@ -17989,7 +18060,7 @@
       <c r="H154" t="s">
         <v>6</v>
       </c>
-      <c r="I154" s="30">
+      <c r="I154" s="15">
         <v>-19.89</v>
       </c>
       <c r="J154" t="str">
@@ -18024,7 +18095,7 @@
       <c r="H155" t="s">
         <v>6</v>
       </c>
-      <c r="I155" s="30">
+      <c r="I155" s="15">
         <v>-0.35</v>
       </c>
       <c r="J155" t="str">
@@ -18059,7 +18130,7 @@
       <c r="H156" t="s">
         <v>6</v>
       </c>
-      <c r="I156" s="30">
+      <c r="I156" s="15">
         <v>-16.55</v>
       </c>
       <c r="J156" t="str">
@@ -18094,7 +18165,7 @@
       <c r="H157" t="s">
         <v>6</v>
       </c>
-      <c r="I157" s="30">
+      <c r="I157" s="15">
         <v>-0.04</v>
       </c>
       <c r="J157" t="str">
@@ -18129,7 +18200,7 @@
       <c r="H158" t="s">
         <v>6</v>
       </c>
-      <c r="I158" s="30">
+      <c r="I158" s="15">
         <v>-2.0699999999999998</v>
       </c>
       <c r="J158" t="str">
@@ -18164,7 +18235,7 @@
       <c r="H159" t="s">
         <v>110</v>
       </c>
-      <c r="I159" s="31">
+      <c r="I159" s="16">
         <v>2.0499999999999998</v>
       </c>
       <c r="J159" t="str">
@@ -18199,7 +18270,7 @@
       <c r="H160" t="s">
         <v>6</v>
       </c>
-      <c r="I160" s="30">
+      <c r="I160" s="15">
         <v>-18.07</v>
       </c>
       <c r="J160" t="str">
@@ -18234,7 +18305,7 @@
       <c r="H161" t="s">
         <v>6</v>
       </c>
-      <c r="I161" s="30">
+      <c r="I161" s="15">
         <v>-2.8</v>
       </c>
       <c r="J161" t="str">
@@ -18269,7 +18340,7 @@
       <c r="H162" t="s">
         <v>6</v>
       </c>
-      <c r="I162" s="30">
+      <c r="I162" s="15">
         <v>-0.99</v>
       </c>
       <c r="J162" t="str">
@@ -18304,7 +18375,7 @@
       <c r="H163" t="s">
         <v>6</v>
       </c>
-      <c r="I163" s="30">
+      <c r="I163" s="15">
         <v>-10.99</v>
       </c>
       <c r="J163" t="str">
@@ -18339,7 +18410,7 @@
       <c r="H164" t="s">
         <v>112</v>
       </c>
-      <c r="I164" s="30">
+      <c r="I164" s="15">
         <v>-130.72</v>
       </c>
       <c r="J164" t="str">
@@ -18374,7 +18445,7 @@
       <c r="H165" t="s">
         <v>35</v>
       </c>
-      <c r="I165" s="30">
+      <c r="I165" s="15">
         <v>675</v>
       </c>
       <c r="J165" t="str">
@@ -18409,7 +18480,7 @@
       <c r="H166" t="s">
         <v>6</v>
       </c>
-      <c r="I166" s="30">
+      <c r="I166" s="15">
         <v>-0.35</v>
       </c>
       <c r="J166" t="str">
@@ -18444,7 +18515,7 @@
       <c r="H167" t="s">
         <v>6</v>
       </c>
-      <c r="I167" s="30">
+      <c r="I167" s="15">
         <v>-16.66</v>
       </c>
       <c r="J167" t="str">
@@ -18479,7 +18550,7 @@
       <c r="H168" t="s">
         <v>6</v>
       </c>
-      <c r="I168" s="30">
+      <c r="I168" s="15">
         <v>-27.58</v>
       </c>
       <c r="J168" t="str">
@@ -18514,7 +18585,7 @@
       <c r="H169" t="s">
         <v>6</v>
       </c>
-      <c r="I169" s="30">
+      <c r="I169" s="15">
         <v>-470.2</v>
       </c>
       <c r="J169" t="str">
@@ -18549,7 +18620,7 @@
       <c r="H170" t="s">
         <v>6</v>
       </c>
-      <c r="I170" s="30">
+      <c r="I170" s="15">
         <v>-0.99</v>
       </c>
       <c r="J170" t="str">
@@ -18584,7 +18655,7 @@
       <c r="H171" t="s">
         <v>6</v>
       </c>
-      <c r="I171" s="30">
+      <c r="I171" s="15">
         <v>-10.99</v>
       </c>
       <c r="J171" t="str">
@@ -18619,7 +18690,7 @@
       <c r="H172" t="s">
         <v>35</v>
       </c>
-      <c r="I172" s="30">
+      <c r="I172" s="15">
         <v>215</v>
       </c>
       <c r="J172" t="str">
@@ -18654,7 +18725,7 @@
       <c r="H173" t="s">
         <v>6</v>
       </c>
-      <c r="I173" s="30">
+      <c r="I173" s="15">
         <v>-19.89</v>
       </c>
       <c r="J173" t="str">
@@ -18689,7 +18760,7 @@
       <c r="H174" t="s">
         <v>6</v>
       </c>
-      <c r="I174" s="30">
+      <c r="I174" s="15">
         <v>-102</v>
       </c>
       <c r="J174" t="str">
@@ -18724,7 +18795,7 @@
       <c r="H175" t="s">
         <v>115</v>
       </c>
-      <c r="I175" s="30">
+      <c r="I175" s="15">
         <v>-155.47</v>
       </c>
       <c r="J175" t="str">
@@ -18759,7 +18830,7 @@
       <c r="H176" t="s">
         <v>117</v>
       </c>
-      <c r="I176" s="30">
+      <c r="I176" s="15">
         <v>312.5</v>
       </c>
       <c r="J176" t="str">
@@ -18794,7 +18865,7 @@
       <c r="H177" t="s">
         <v>6</v>
       </c>
-      <c r="I177" s="30">
+      <c r="I177" s="15">
         <v>-0.36</v>
       </c>
       <c r="J177" t="str">
@@ -18829,7 +18900,7 @@
       <c r="H178" t="s">
         <v>6</v>
       </c>
-      <c r="I178" s="30">
+      <c r="I178" s="15">
         <v>-17.14</v>
       </c>
       <c r="J178" t="str">
@@ -18864,7 +18935,7 @@
       <c r="H179" t="s">
         <v>6</v>
       </c>
-      <c r="I179" s="30">
+      <c r="I179" s="15">
         <v>-50.97</v>
       </c>
       <c r="J179" t="str">
@@ -18899,7 +18970,7 @@
       <c r="H180" t="s">
         <v>6</v>
       </c>
-      <c r="I180" s="30">
+      <c r="I180" s="15">
         <v>-9.49</v>
       </c>
       <c r="J180" t="str">
@@ -18934,7 +19005,7 @@
       <c r="H181" t="s">
         <v>120</v>
       </c>
-      <c r="I181" s="30">
+      <c r="I181" s="15">
         <v>212.5</v>
       </c>
       <c r="J181" t="str">
@@ -18969,7 +19040,7 @@
       <c r="H182" t="s">
         <v>122</v>
       </c>
-      <c r="I182" s="30">
+      <c r="I182" s="15">
         <v>104.36</v>
       </c>
       <c r="J182" t="str">
@@ -19004,7 +19075,7 @@
       <c r="H183" t="s">
         <v>6</v>
       </c>
-      <c r="I183" s="30">
+      <c r="I183" s="15">
         <v>-32.979999999999997</v>
       </c>
       <c r="J183" t="str">
@@ -19039,7 +19110,7 @@
       <c r="H184" t="s">
         <v>6</v>
       </c>
-      <c r="I184" s="30">
+      <c r="I184" s="15">
         <v>-35.99</v>
       </c>
       <c r="J184" t="str">
@@ -19074,7 +19145,7 @@
       <c r="H185" t="s">
         <v>124</v>
       </c>
-      <c r="I185" s="30">
+      <c r="I185" s="15">
         <v>210</v>
       </c>
       <c r="J185" t="str">
@@ -19109,7 +19180,7 @@
       <c r="H186" t="s">
         <v>6</v>
       </c>
-      <c r="I186" s="30">
+      <c r="I186" s="15">
         <v>-55.97</v>
       </c>
       <c r="J186" t="str">
@@ -19144,7 +19215,7 @@
       <c r="H187" t="s">
         <v>6</v>
       </c>
-      <c r="I187" s="30">
+      <c r="I187" s="15">
         <v>-10</v>
       </c>
       <c r="J187" t="str">
@@ -19179,7 +19250,7 @@
       <c r="H188" t="s">
         <v>126</v>
       </c>
-      <c r="I188" s="30">
+      <c r="I188" s="15">
         <v>315</v>
       </c>
       <c r="J188" t="str">
@@ -19214,7 +19285,7 @@
       <c r="H189" t="s">
         <v>6</v>
       </c>
-      <c r="I189" s="30">
+      <c r="I189" s="15">
         <v>-35.880000000000003</v>
       </c>
       <c r="J189" t="str">
@@ -19249,7 +19320,7 @@
       <c r="H190" t="s">
         <v>127</v>
       </c>
-      <c r="I190" s="30">
+      <c r="I190" s="15">
         <v>315</v>
       </c>
       <c r="J190" t="str">
@@ -19284,7 +19355,7 @@
       <c r="H191" t="s">
         <v>6</v>
       </c>
-      <c r="I191" s="30">
+      <c r="I191" s="15">
         <v>-28.98</v>
       </c>
       <c r="J191" t="str">
@@ -19319,7 +19390,7 @@
       <c r="H192" t="s">
         <v>6</v>
       </c>
-      <c r="I192" s="30">
+      <c r="I192" s="15">
         <v>-79.58</v>
       </c>
       <c r="J192" t="str">
@@ -19354,7 +19425,7 @@
       <c r="H193" t="s">
         <v>6</v>
       </c>
-      <c r="I193" s="30">
+      <c r="I193" s="15">
         <v>-64.040000000000006</v>
       </c>
       <c r="J193" t="str">
@@ -19389,7 +19460,7 @@
       <c r="H194" t="s">
         <v>130</v>
       </c>
-      <c r="I194" s="30">
+      <c r="I194" s="15">
         <v>214</v>
       </c>
       <c r="J194" t="str">
@@ -19424,7 +19495,7 @@
       <c r="H195" t="s">
         <v>6</v>
       </c>
-      <c r="I195" s="30">
+      <c r="I195" s="15">
         <v>-82.08</v>
       </c>
       <c r="J195" t="str">
@@ -19459,7 +19530,7 @@
       <c r="H196" t="s">
         <v>132</v>
       </c>
-      <c r="I196" s="30">
+      <c r="I196" s="15">
         <v>-37.24</v>
       </c>
       <c r="J196" t="str">
@@ -19494,7 +19565,7 @@
       <c r="H197" t="s">
         <v>124</v>
       </c>
-      <c r="I197" s="30">
+      <c r="I197" s="15">
         <v>312.5</v>
       </c>
       <c r="J197" t="str">
@@ -19529,7 +19600,7 @@
       <c r="H198" t="s">
         <v>6</v>
       </c>
-      <c r="I198" s="30">
+      <c r="I198" s="15">
         <v>-14.99</v>
       </c>
       <c r="J198" t="str">
@@ -19564,7 +19635,7 @@
       <c r="H199" t="s">
         <v>6</v>
       </c>
-      <c r="I199" s="30">
+      <c r="I199" s="15">
         <v>-79.95</v>
       </c>
       <c r="J199" t="str">
@@ -19599,7 +19670,7 @@
       <c r="H200" t="s">
         <v>6</v>
       </c>
-      <c r="I200" s="30">
+      <c r="I200" s="15">
         <v>-4.6100000000000003</v>
       </c>
       <c r="J200" t="str">
@@ -19634,7 +19705,7 @@
       <c r="H201" t="s">
         <v>6</v>
       </c>
-      <c r="I201" s="30">
+      <c r="I201" s="15">
         <v>-14.99</v>
       </c>
       <c r="J201" t="str">
@@ -19669,7 +19740,7 @@
       <c r="H202" t="s">
         <v>136</v>
       </c>
-      <c r="I202" s="30">
+      <c r="I202" s="15">
         <v>-150</v>
       </c>
       <c r="J202" t="str">
@@ -19704,7 +19775,7 @@
       <c r="H203" t="s">
         <v>138</v>
       </c>
-      <c r="I203" s="30">
+      <c r="I203" s="15">
         <v>-15</v>
       </c>
       <c r="J203" t="str">
@@ -19739,7 +19810,7 @@
       <c r="H204" t="s">
         <v>139</v>
       </c>
-      <c r="I204" s="30">
+      <c r="I204" s="15">
         <v>-18</v>
       </c>
       <c r="J204" t="str">
@@ -19774,7 +19845,7 @@
       <c r="H205" t="s">
         <v>6</v>
       </c>
-      <c r="I205" s="30">
+      <c r="I205" s="15">
         <v>-4.6100000000000003</v>
       </c>
       <c r="J205" t="str">
@@ -19809,7 +19880,7 @@
       <c r="H206" t="s">
         <v>6</v>
       </c>
-      <c r="I206" s="30">
+      <c r="I206" s="15">
         <v>-17.600000000000001</v>
       </c>
       <c r="J206" t="str">
@@ -19844,7 +19915,7 @@
       <c r="H207" t="s">
         <v>6</v>
       </c>
-      <c r="I207" s="30">
+      <c r="I207" s="15">
         <v>-67.599999999999994</v>
       </c>
       <c r="J207" t="str">
@@ -19879,7 +19950,7 @@
       <c r="H208" t="s">
         <v>6</v>
       </c>
-      <c r="I208" s="30">
+      <c r="I208" s="15">
         <v>-14.5</v>
       </c>
       <c r="J208" t="str">
@@ -19914,7 +19985,7 @@
       <c r="H209" t="s">
         <v>6</v>
       </c>
-      <c r="I209" s="30">
+      <c r="I209" s="15">
         <v>-61.48</v>
       </c>
       <c r="J209" t="str">
@@ -19949,7 +20020,7 @@
       <c r="H210" t="s">
         <v>140</v>
       </c>
-      <c r="I210" s="30">
+      <c r="I210" s="15">
         <v>200.5</v>
       </c>
       <c r="J210" t="str">
@@ -19984,7 +20055,7 @@
       <c r="H211" t="s">
         <v>6</v>
       </c>
-      <c r="I211" s="30">
+      <c r="I211" s="15">
         <v>-44.88</v>
       </c>
       <c r="J211" t="str">
@@ -20019,7 +20090,7 @@
       <c r="H212" t="s">
         <v>141</v>
       </c>
-      <c r="I212" s="30">
+      <c r="I212" s="15">
         <v>-18</v>
       </c>
       <c r="J212" t="str">
@@ -20054,7 +20125,7 @@
       <c r="H213" t="s">
         <v>35</v>
       </c>
-      <c r="I213" s="30">
+      <c r="I213" s="15">
         <v>390</v>
       </c>
       <c r="J213" t="str">
@@ -20089,7 +20160,7 @@
       <c r="H214" t="s">
         <v>6</v>
       </c>
-      <c r="I214" s="30">
+      <c r="I214" s="15">
         <v>-29.99</v>
       </c>
       <c r="J214" t="str">
@@ -20124,7 +20195,7 @@
       <c r="H215" t="s">
         <v>6</v>
       </c>
-      <c r="I215" s="30">
+      <c r="I215" s="15">
         <v>-18.989999999999998</v>
       </c>
       <c r="J215" t="str">
@@ -20159,7 +20230,7 @@
       <c r="H216" t="s">
         <v>6</v>
       </c>
-      <c r="I216" s="30">
+      <c r="I216" s="15">
         <v>-35.880000000000003</v>
       </c>
       <c r="J216" t="str">
@@ -20194,7 +20265,7 @@
       <c r="H217" t="s">
         <v>6</v>
       </c>
-      <c r="I217" s="30">
+      <c r="I217" s="15">
         <v>-17</v>
       </c>
       <c r="J217" t="str">
@@ -20229,7 +20300,7 @@
       <c r="H218" t="s">
         <v>6</v>
       </c>
-      <c r="I218" s="30">
+      <c r="I218" s="15">
         <v>-3.06</v>
       </c>
       <c r="J218" t="str">
@@ -20264,7 +20335,7 @@
       <c r="H219" t="s">
         <v>6</v>
       </c>
-      <c r="I219" s="30">
+      <c r="I219" s="15">
         <v>-177.64</v>
       </c>
       <c r="J219" t="str">
@@ -20299,7 +20370,7 @@
       <c r="H220" t="s">
         <v>146</v>
       </c>
-      <c r="I220" s="31">
+      <c r="I220" s="16">
         <v>8.06</v>
       </c>
       <c r="J220" t="str">
@@ -20311,7 +20382,7 @@
       <c r="A221"/>
       <c r="B221"/>
       <c r="H221"/>
-      <c r="I221" s="30">
+      <c r="I221" s="15">
         <f>SUBTOTAL(109, Export20251104132100[Amount])</f>
         <v>993.03999999999962</v>
       </c>
@@ -20369,7 +20440,7 @@
       <c r="A4" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="15">
         <v>-74.139999999999986</v>
       </c>
     </row>
@@ -20377,7 +20448,7 @@
       <c r="A5" t="s">
         <v>249</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="15">
         <v>-418.47000000000008</v>
       </c>
     </row>
@@ -20385,7 +20456,7 @@
       <c r="A6" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="15">
         <v>-10</v>
       </c>
     </row>
@@ -20393,7 +20464,7 @@
       <c r="A7" t="s">
         <v>256</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="15">
         <v>-79.95</v>
       </c>
     </row>
@@ -20401,7 +20472,7 @@
       <c r="A8" t="s">
         <v>258</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="15">
         <v>-353.49000000000007</v>
       </c>
     </row>
@@ -20409,7 +20480,7 @@
       <c r="A9" t="s">
         <v>259</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="15">
         <v>-301.90000000000003</v>
       </c>
     </row>
@@ -20417,7 +20488,7 @@
       <c r="A10" t="s">
         <v>245</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="15">
         <v>-461.44999999999993</v>
       </c>
     </row>
@@ -20425,7 +20496,7 @@
       <c r="A11" t="s">
         <v>255</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="15">
         <v>-210.14999999999998</v>
       </c>
     </row>
@@ -20433,7 +20504,7 @@
       <c r="A12" t="s">
         <v>251</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="15">
         <v>-59.67</v>
       </c>
     </row>
@@ -20441,7 +20512,7 @@
       <c r="A13" t="s">
         <v>254</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="15">
         <v>7065.79</v>
       </c>
     </row>
@@ -20449,7 +20520,7 @@
       <c r="A14" t="s">
         <v>247</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="15">
         <v>-1239.42</v>
       </c>
     </row>
@@ -20457,7 +20528,7 @@
       <c r="A15" t="s">
         <v>257</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="15">
         <v>-377.2700000000001</v>
       </c>
     </row>
@@ -20465,7 +20536,7 @@
       <c r="A16" t="s">
         <v>253</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="15">
         <v>-259.24</v>
       </c>
     </row>
@@ -20473,7 +20544,7 @@
       <c r="A17" t="s">
         <v>246</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="15">
         <v>-77.8</v>
       </c>
     </row>
@@ -20481,7 +20552,7 @@
       <c r="A18" t="s">
         <v>260</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="15">
         <v>-458</v>
       </c>
     </row>
@@ -20489,7 +20560,7 @@
       <c r="A19" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="15">
         <v>-1691.8</v>
       </c>
     </row>
@@ -21124,8 +21195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9856988F-828E-453C-B429-B5C3A4F55E08}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21179,7 +21250,7 @@
       <c r="B4" s="7">
         <v>-74.139999999999986</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="33">
         <v>3</v>
       </c>
       <c r="D4" s="6">
@@ -21200,7 +21271,7 @@
       <c r="B5" s="7">
         <v>-418.47000000000008</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="33">
         <v>20</v>
       </c>
       <c r="D5" s="6">
@@ -21221,7 +21292,7 @@
       <c r="B6" s="7">
         <v>-10</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="33">
         <v>1</v>
       </c>
       <c r="D6" s="6">
@@ -21242,7 +21313,7 @@
       <c r="B7" s="7">
         <v>-79.95</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="33">
         <v>1</v>
       </c>
       <c r="D7" s="6">
@@ -21263,7 +21334,7 @@
       <c r="B8" s="7">
         <v>-353.49000000000007</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="33">
         <v>35</v>
       </c>
       <c r="D8" s="6">
@@ -21284,7 +21355,7 @@
       <c r="B9" s="7">
         <v>-301.90000000000003</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="33">
         <v>12</v>
       </c>
       <c r="D9" s="6">
@@ -21305,7 +21376,7 @@
       <c r="B10" s="7">
         <v>-461.44999999999993</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="33">
         <v>13</v>
       </c>
       <c r="D10" s="6">
@@ -21326,7 +21397,7 @@
       <c r="B11" s="7">
         <v>-210.14999999999998</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="33">
         <v>5</v>
       </c>
       <c r="D11" s="6">
@@ -21347,7 +21418,7 @@
       <c r="B12" s="7">
         <v>-59.67</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="33">
         <v>3</v>
       </c>
       <c r="D12" s="6">
@@ -21368,7 +21439,7 @@
       <c r="B13" s="7">
         <v>7065.79</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="33">
         <v>37</v>
       </c>
       <c r="D13" s="6">
@@ -21389,7 +21460,7 @@
       <c r="B14" s="7">
         <v>-1239.42</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="33">
         <v>25</v>
       </c>
       <c r="D14" s="6">
@@ -21409,7 +21480,7 @@
       <c r="B15" s="7">
         <v>-377.2700000000001</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="33">
         <v>23</v>
       </c>
       <c r="D15" s="6">
@@ -21429,7 +21500,7 @@
       <c r="B16" s="7">
         <v>-259.24</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="33">
         <v>7</v>
       </c>
       <c r="D16" s="6">
@@ -21449,7 +21520,7 @@
       <c r="B17" s="7">
         <v>-77.8</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="33">
         <v>4</v>
       </c>
       <c r="D17" s="6">
@@ -21469,7 +21540,7 @@
       <c r="B18" s="7">
         <v>-458</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="33">
         <v>6</v>
       </c>
       <c r="D18" s="6">
@@ -21489,7 +21560,7 @@
       <c r="B19" s="7">
         <v>-1691.8</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="33">
         <v>24</v>
       </c>
       <c r="D19" s="6">
@@ -21509,7 +21580,7 @@
       <c r="B20" s="7">
         <v>993.04000000000849</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="33">
         <v>219</v>
       </c>
       <c r="D20" s="6">
@@ -22010,19 +22081,19 @@
       <c r="A1" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>262</v>
       </c>
     </row>
@@ -22030,210 +22101,210 @@
       <c r="A2" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="15">
         <f>SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"In",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>1295.56</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="15">
         <f>-SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"out",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>1442.3000000000006</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="15">
         <f>Table2[[#This Row],[income]]+Table2[[#This Row],[spending]]</f>
         <v>2737.8600000000006</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="15">
         <f>SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"In",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>949.17</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="15">
         <f>-SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"out",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>829.99</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="15">
         <f>Table2[[#This Row],[income]]+Table2[[#This Row],[spending]]</f>
         <v>1779.1599999999999</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="15">
         <f>SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"In",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>130</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="15">
         <f>-SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"out",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>361.35</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="15">
         <f>Table2[[#This Row],[income]]+Table2[[#This Row],[spending]]</f>
         <v>491.35</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="15">
         <f>SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"In",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>430</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="15">
         <f>-SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"out",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>398.45000000000005</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="15">
         <f>Table2[[#This Row],[income]]+Table2[[#This Row],[spending]]</f>
         <v>828.45</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="15">
         <f>SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"In",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>150</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="15">
         <f>-SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"out",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>260.35999999999996</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="15">
         <f>Table2[[#This Row],[income]]+Table2[[#This Row],[spending]]</f>
         <v>410.35999999999996</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>208</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="15">
         <f>SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"In",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>685.7</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="15">
         <f>-SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"out",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>522.12999999999988</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="15">
         <f>Table2[[#This Row],[income]]+Table2[[#This Row],[spending]]</f>
         <v>1207.83</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>209</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="15">
         <f>SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"In",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>677.05</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="15">
         <f>-SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"out",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>182.69</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="15">
         <f>Table2[[#This Row],[income]]+Table2[[#This Row],[spending]]</f>
         <v>859.74</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="15">
         <f>SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"In",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>527.5</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="15">
         <f>-SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"out",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>865.08</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="15">
         <f>Table2[[#This Row],[income]]+Table2[[#This Row],[spending]]</f>
         <v>1392.58</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="15">
         <f>SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"In",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>1156.8600000000001</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="15">
         <f>-SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"out",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>343.42</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="15">
         <f>Table2[[#This Row],[income]]+Table2[[#This Row],[spending]]</f>
         <v>1500.2800000000002</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="15">
         <f>SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"In",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>1117</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="15">
         <f>-SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"out",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>730.3900000000001</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="15">
         <f>Table2[[#This Row],[income]]+Table2[[#This Row],[spending]]</f>
         <v>1847.39</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>213</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="15">
         <f>SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"In",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>8.06</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="15">
         <f>-SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"out",'Personal spending'!B:B,Table2[[#This Row],[Month-year]])</f>
         <v>197.7</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="15">
         <f>Table2[[#This Row],[income]]+Table2[[#This Row],[spending]]</f>
         <v>205.76</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -22244,6 +22315,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{97651564-882B-48BC-9104-192150B5EA14}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Income Sparklines'!B2:B12</xm:f>
+              <xm:sqref>E2</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{448DB124-E604-4871-880A-567239401A1E}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -22260,22 +22347,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{97651564-882B-48BC-9104-192150B5EA14}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Income Sparklines'!B2:B12</xm:f>
-              <xm:sqref>E2</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -22286,8 +22357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1785AE98-A561-4137-8818-7C6168B4DDFD}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22301,16 +22372,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -22319,79 +22390,76 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="17">
+      <c r="A4" s="23">
         <f>SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"In")</f>
         <v>7126.9000000000005</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="23">
         <f>-SUMIFS('Personal spending'!I:I,'Personal spending'!J:J,"out")</f>
         <v>6133.8599999999951</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17">
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="23">
         <f>A4-D4</f>
         <v>993.04000000000542</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
+      <c r="A6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C5"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F5"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="G4:I5"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
